--- a/template.xlsx
+++ b/template.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kati</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Kati</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -707,27 +707,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Kati</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Britt</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Megan</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Britt</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Josh</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Kati</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -885,11 +885,7 @@
           <t>Britt</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kati</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>Josh</t>
@@ -917,15 +913,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Kati</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Megan</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -946,10 +946,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Josh</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>Megan</t>
@@ -977,7 +981,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -990,11 +994,7 @@
           <t>Kati</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Kati</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21"/>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1408,10 +1408,10 @@
         <v>216</v>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
         <v>14</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1474,10 +1474,10 @@
         <v>216</v>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
         <v>14</v>
@@ -2211,17 +2211,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>D1</t>
@@ -2291,13 +2291,13 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>D1</t>
@@ -2325,12 +2325,12 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
@@ -2342,18 +2342,18 @@
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>D1</t>
@@ -2439,7 +2439,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>D1</t>
@@ -2458,7 +2462,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2472,11 +2476,7 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>D1</t>
@@ -2485,7 +2485,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2503,12 +2503,12 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
@@ -2529,12 +2529,12 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -2573,7 +2573,11 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>D2</t>
@@ -2586,11 +2590,7 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>36</v>
@@ -2905,16 +2905,12 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2928,7 +2924,11 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -2959,11 +2959,7 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>D1</t>
@@ -2972,30 +2968,34 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -3009,7 +3009,11 @@
           <t>D1</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
@@ -3022,34 +3026,30 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -507,27 +507,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Britt</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Megan</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Britt</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Kati</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Josh</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -547,27 +547,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Kati</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Britt</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Josh</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Britt</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kati</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -597,17 +597,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Josh</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Kati</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Britt</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -627,27 +627,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Britt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Megan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Britt</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Kati</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Britt</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -809,15 +809,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Josh</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Britt</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>Kati</t>
@@ -838,24 +842,20 @@
           <t>Britt</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Kati</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Britt</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Kati</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -882,10 +882,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Britt</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kati</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>Josh</t>
@@ -903,29 +907,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Kati</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Kati</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kati</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>Megan</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Britt</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1175,12 +1175,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Liz</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Megan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1408,10 +1408,10 @@
         <v>216</v>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
         <v>14</v>
@@ -1474,10 +1474,10 @@
         <v>216</v>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
         <v>14</v>
@@ -1698,12 +1698,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
@@ -1801,12 +1801,12 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
@@ -1828,12 +1828,12 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -1855,12 +1855,12 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
@@ -1871,12 +1871,12 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -1936,12 +1936,12 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
@@ -2020,7 +2020,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -2034,7 +2038,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -2043,17 +2047,13 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2062,7 +2062,11 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -2076,7 +2080,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -2085,17 +2089,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2210,13 +2210,13 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>D1</t>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -2237,23 +2237,23 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -2268,10 +2268,14 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -2284,34 +2288,30 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -2319,13 +2319,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>D2</t>
@@ -2345,7 +2345,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2444,11 +2444,7 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -2462,30 +2458,34 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -2503,12 +2503,12 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
@@ -2519,20 +2519,20 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -2721,12 +2721,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -2747,12 +2747,12 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -2894,23 +2894,27 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -2924,11 +2928,7 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -2953,22 +2953,18 @@
           <t>D1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2977,25 +2973,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -3003,17 +3003,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
@@ -3034,18 +3034,18 @@
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">

--- a/template.xlsx
+++ b/template.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Kati</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,17 +557,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Kati</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Josh</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Britt</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -587,27 +587,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Kati</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Britt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Megan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Britt</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Britt</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>David</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kati</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -804,17 +804,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kati</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kati</t>
+          <t>Britt</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kati</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Britt</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -907,25 +907,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Josh</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>Kati</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Kati</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -949,11 +949,7 @@
           <t>Josh</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>Megan</t>
@@ -986,7 +982,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -994,7 +990,11 @@
           <t>Kati</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kati</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21"/>
@@ -1140,12 +1140,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Liz</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Josh</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1175,12 +1175,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Megan</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Liz</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1215,12 +1215,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Ashley</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Megan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1408,10 +1408,10 @@
         <v>216</v>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
         <v>14</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1474,10 +1474,10 @@
         <v>216</v>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
         <v>14</v>
@@ -1670,12 +1670,12 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -1828,12 +1828,12 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -1855,12 +1855,12 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
@@ -2020,11 +2020,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -2038,7 +2034,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2047,13 +2043,17 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -2062,11 +2062,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -2080,7 +2076,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2089,13 +2085,17 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -2210,16 +2210,20 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2230,7 +2234,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2243,21 +2247,17 @@
           <t>N</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2265,17 +2265,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -2295,11 +2295,7 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>D1</t>
@@ -2307,7 +2303,11 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -2318,7 +2318,11 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -2326,11 +2330,7 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2438,12 +2438,12 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2492,17 +2492,17 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
@@ -2519,23 +2519,23 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -2573,11 +2573,7 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>D2</t>
@@ -2590,7 +2586,11 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>36</v>
@@ -2721,12 +2721,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -2747,12 +2747,12 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -2948,38 +2948,42 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2987,15 +2991,11 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -3003,11 +3003,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>D1</t>
@@ -3026,14 +3022,18 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
@@ -3042,14 +3042,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Master" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ashley" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Britt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="David" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Josh" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kati" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Liz" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Megan" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Master" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ashley" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Britt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="David" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Josh" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Kati" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Liz" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Megan" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,22 +507,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Britt</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Kati</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Britt</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Britt</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kati</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,17 +597,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Megan</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Megan</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Britt</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -627,27 +627,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Britt</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Kati</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Josh</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Kati</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Britt</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -802,19 +802,15 @@
           <t>Britt</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Megan</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -842,7 +838,11 @@
           <t>Britt</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Megan</t>
@@ -850,7 +850,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Britt</t>
+          <t>David</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -877,19 +877,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Kati</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Britt</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>Kati</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>Josh</t>
@@ -907,7 +903,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kati</t>
+          <t>Britt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -926,7 +922,11 @@
           <t>Kati</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Kati</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -977,12 +977,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Britt</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Liz</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Josh</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1175,12 +1175,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Liz</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Megan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Ashley</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Josh</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1698,12 +1698,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
@@ -1828,12 +1828,12 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
@@ -1855,12 +1855,12 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1936,12 +1936,12 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
@@ -2043,12 +2043,12 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -2210,20 +2210,16 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2234,30 +2230,34 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -2295,19 +2295,19 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
@@ -2342,17 +2342,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
@@ -2438,13 +2438,13 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -2492,23 +2492,23 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
@@ -2519,24 +2519,24 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>36</v>
@@ -2693,12 +2693,12 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -2747,12 +2747,12 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -2948,39 +2948,35 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>D2</t>
@@ -2991,11 +2987,15 @@
           <t>D2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -3035,17 +3035,17 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34b6dee9d188c71f/CV/Github/Templater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{684E5768-60DA-4700-8B11-DE4D344739B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E6CBF5C0596C742BC325C1FEDAF432A350F682EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="1350" windowWidth="21600" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="2025" windowWidth="21600" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -56,19 +56,19 @@
     <t>Su</t>
   </si>
   <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Kati</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Britt</t>
+  </si>
+  <si>
     <t>Josh</t>
-  </si>
-  <si>
-    <t>Britt</t>
-  </si>
-  <si>
-    <t>Kati</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Megan</t>
   </si>
   <si>
     <t>Day 2 Shifts</t>
@@ -129,20 +129,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,12 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -194,10 +188,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,7 +478,7 @@
   <dimension ref="A2:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,17 +494,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -555,17 +545,17 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -573,25 +563,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -599,25 +589,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -625,25 +615,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,25 +641,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,36 +670,36 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -742,10 +732,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -754,13 +744,13 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,22 +775,22 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -808,19 +798,19 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
+      <c r="F18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,22 +818,22 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -854,30 +844,30 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -913,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -939,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -965,22 +955,22 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -988,19 +978,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
@@ -1014,13 +1004,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
         <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1043,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -1062,14 +1052,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1113,7 +1103,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>216</v>
@@ -1125,15 +1115,15 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>108</v>
@@ -1153,7 +1143,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>216</v>
@@ -1173,7 +1163,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>216</v>
@@ -1185,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,15 +1195,15 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>216</v>
@@ -1320,21 +1310,21 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="I4">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
@@ -1344,14 +1334,14 @@
         <v>25</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
@@ -1430,14 +1420,17 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
       <c r="I2">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,11 +1443,8 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1464,7 +1454,7 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" t="s">
@@ -1478,7 +1468,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
@@ -1512,11 +1502,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" t="s">
         <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1571,7 +1561,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
@@ -1610,8 +1600,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -1622,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1688,13 +1678,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="I2">
@@ -1705,13 +1695,13 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="I3">
@@ -1723,16 +1713,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>48</v>
@@ -1742,10 +1732,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="I5">
@@ -1756,10 +1746,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="I6">
@@ -1770,11 +1760,11 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1832,13 +1822,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="I2">
@@ -1849,14 +1839,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>36</v>
@@ -1866,13 +1856,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4">
@@ -1883,14 +1873,14 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>36</v>
@@ -1906,7 +1896,7 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="I6">
@@ -1917,13 +1907,13 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="I7">
@@ -2010,13 +2000,13 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="I4">
@@ -2030,10 +2020,10 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="I5">
@@ -2044,7 +2034,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
@@ -2120,17 +2110,14 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2138,6 +2125,9 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
@@ -2147,21 +2137,24 @@
         <v>27</v>
       </c>
       <c r="I3">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2169,19 +2162,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2189,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2205,7 +2195,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34b6dee9d188c71f/CV/Github/Templater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E6CBF5C0596C742BC325C1FEDAF432A350F682EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_563CE4CB515C0326B37BFC40A02FC97D2AE2C542" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93E46DA-6E48-4F99-83F7-A69F7C4903DD}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="2025" windowWidth="21600" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52830" yWindow="3165" windowWidth="12945" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="28">
   <si>
     <t>Day 1 Shifts</t>
   </si>
@@ -62,13 +62,13 @@
     <t>Kati</t>
   </si>
   <si>
-    <t>David</t>
+    <t>Josh</t>
   </si>
   <si>
     <t>Britt</t>
   </si>
   <si>
-    <t>Josh</t>
+    <t>David</t>
   </si>
   <si>
     <t>Day 2 Shifts</t>
@@ -107,10 +107,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>D2</t>
+    <t>D1</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -475,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I44"/>
+  <dimension ref="A2:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,16 +545,16 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -563,25 +562,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -589,16 +588,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -615,25 +614,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -644,22 +643,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,566 +666,1013 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H25" t="s">
         <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>432</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>26</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>432</v>
+      </c>
+      <c r="C57">
+        <v>36</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="B58">
+        <v>240</v>
+      </c>
+      <c r="C58">
         <v>20</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>216</v>
-      </c>
-      <c r="C38">
+      <c r="D58">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>18</v>
-      </c>
-      <c r="E38">
-        <v>12</v>
-      </c>
-      <c r="F38">
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>432</v>
+      </c>
+      <c r="C59">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>28</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>432</v>
+      </c>
+      <c r="C60">
+        <v>36</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
+      </c>
+      <c r="F60">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39">
-        <v>216</v>
-      </c>
-      <c r="C39">
-        <v>18</v>
-      </c>
-      <c r="D39">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>432</v>
+      </c>
+      <c r="C61">
         <v>0</v>
       </c>
-      <c r="E39">
-        <v>14</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>108</v>
-      </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41">
-        <v>216</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>14</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>216</v>
-      </c>
-      <c r="C42">
-        <v>18</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43">
-        <v>216</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>18</v>
-      </c>
-      <c r="E43">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44">
-        <v>216</v>
-      </c>
-      <c r="C44">
-        <v>16</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>14</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
+      <c r="D61">
+        <v>36</v>
+      </c>
+      <c r="E61">
+        <v>26</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>432</v>
+      </c>
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>28</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A19:I19"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A35:F35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1234,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1276,10 +1722,10 @@
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2">
@@ -1290,13 +1736,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="I3">
@@ -1307,21 +1753,24 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" t="s">
@@ -1330,35 +1779,32 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
       <c r="I5">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
       <c r="I6">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7" t="s">
@@ -1368,7 +1814,109 @@
         <v>25</v>
       </c>
       <c r="I7">
-        <v>36</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1926,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1417,20 +1965,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1441,10 +1983,16 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1458,7 +2006,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>36</v>
@@ -1468,14 +2016,14 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
       </c>
       <c r="I5">
         <v>36</v>
@@ -1486,33 +2034,135 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
       <c r="I6">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
       <c r="I7">
-        <v>36</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +2172,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +2211,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
@@ -1586,6 +2236,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
@@ -1593,18 +2246,15 @@
         <v>27</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="I5">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1612,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1629,6 +2279,87 @@
         <v>6</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -1639,7 +2370,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1678,14 +2409,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
       <c r="I2">
         <v>36</v>
@@ -1695,14 +2426,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>36</v>
@@ -1712,17 +2443,17 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>48</v>
@@ -1732,11 +2463,11 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>24</v>
@@ -1746,34 +2477,136 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="I7">
-        <v>48</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1783,7 +2616,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1822,14 +2655,14 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>36</v>
@@ -1839,14 +2672,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
       </c>
       <c r="I3">
         <v>36</v>
@@ -1856,17 +2689,14 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="I4">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1876,24 +2706,27 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
@@ -1908,16 +2741,118 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="I7">
         <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1927,7 +2862,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1966,68 +2901,68 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
       <c r="I2">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="I4">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2037,10 +2972,10 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
         <v>25</v>
       </c>
       <c r="I6">
@@ -2051,16 +2986,118 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="I7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13">
         <v>36</v>
       </c>
     </row>
@@ -2071,7 +3108,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2111,47 +3148,47 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
       </c>
       <c r="I4">
         <v>36</v>
@@ -2161,14 +3198,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
       <c r="I5">
         <v>36</v>
@@ -2178,33 +3215,135 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
       <c r="I7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
         <v>36</v>
       </c>
     </row>
